--- a/doc/Android应用性能优化最佳实践.xlsx
+++ b/doc/Android应用性能优化最佳实践.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hades/Documents/GitHub/AndroidPO/doc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B90AE7-E205-5244-9D60-FE5659AE2071}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-7660" windowWidth="38400" windowHeight="24000" activeTab="2" xr2:uid="{F9D5C00E-68CF-FA4F-B4E0-A4330C75EA14}"/>
+    <workbookView windowWidth="28660" windowHeight="14400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Homepage" sheetId="14" r:id="rId1"/>
@@ -22,51 +16,65 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'C2_绘制优化_启动优化_启动加载逻辑优化'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>C2_绘制优化_Overdraw_CustomView</t>
+  </si>
+  <si>
+    <t>内存泄漏</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>width=1440,height=2768</t>
+  </si>
+  <si>
+    <t>int yOffset = 40;</t>
+  </si>
+  <si>
+    <t>int xOffset = 40;</t>
+  </si>
   <si>
     <t>bottom = 1424</t>
   </si>
   <si>
-    <t>Z~</t>
-  </si>
-  <si>
-    <t>width=1440,height=2768</t>
-  </si>
-  <si>
-    <t>int yOffset = 40;</t>
-  </si>
-  <si>
-    <t>int xOffset = 40;</t>
+    <t>立刻</t>
+  </si>
+  <si>
+    <t>用户认证</t>
+  </si>
+  <si>
+    <t>数据拉取</t>
+  </si>
+  <si>
+    <t>欢迎页</t>
+  </si>
+  <si>
+    <t>启动初始化 + 异步加载</t>
+  </si>
+  <si>
+    <t>不耗时</t>
   </si>
   <si>
     <t>耗时</t>
   </si>
   <si>
-    <t>不耗时</t>
-  </si>
-  <si>
-    <t>启动初始化 + 异步加载</t>
-  </si>
-  <si>
     <t>延后加载 + 异步加载</t>
   </si>
   <si>
-    <t>欢迎页</t>
+    <t>延迟加载（按需）</t>
+  </si>
+  <si>
+    <t>底层模块的初始化</t>
   </si>
   <si>
     <t>数据上报</t>
@@ -75,48 +83,30 @@
     <t>插件初始化</t>
   </si>
   <si>
-    <t>用户认证</t>
-  </si>
-  <si>
-    <t>底层模块的初始化</t>
-  </si>
-  <si>
-    <t>数据拉取</t>
-  </si>
-  <si>
-    <t>延迟加载（按需）</t>
-  </si>
-  <si>
-    <t>Page</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>C2_绘制优化_Overdraw_CustomView</t>
-  </si>
-  <si>
-    <t>内存泄漏</t>
+    <t>非立刻</t>
+  </si>
+  <si>
+    <t>内存泄漏(Memory Leak)</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Onject ob1  = new Oject()</t>
+  </si>
+  <si>
+    <t>Onject ob2 = ob1</t>
   </si>
   <si>
     <t>References</t>
   </si>
   <si>
-    <t>Onject ob2 = ob1</t>
-  </si>
-  <si>
-    <t>Onject ob1  = new Oject()</t>
-  </si>
-  <si>
     <t>ob1</t>
   </si>
   <si>
     <t>ob2</t>
   </si>
   <si>
-    <t>Heap</t>
-  </si>
-  <si>
     <t>oDestroy()</t>
   </si>
   <si>
@@ -126,67 +116,64 @@
     <t>MAX Memory</t>
   </si>
   <si>
+    <t>内存溢出(OOM)</t>
+  </si>
+  <si>
     <t>Allocated memory</t>
   </si>
   <si>
     <t>New need memory</t>
   </si>
   <si>
-    <t>内存溢出(OOM)</t>
-  </si>
-  <si>
-    <t>内存泄漏(Memory Leak)</t>
-  </si>
-  <si>
     <t>Enum</t>
   </si>
   <si>
+    <t>可读性强</t>
+  </si>
+  <si>
+    <t>类型安全</t>
+  </si>
+  <si>
+    <t>运行时占用内存大</t>
+  </si>
+  <si>
+    <t>apk大小增加多</t>
+  </si>
+  <si>
     <t>Contant Class</t>
   </si>
   <si>
+    <t>可读性弱</t>
+  </si>
+  <si>
+    <t>类型不安全</t>
+  </si>
+  <si>
+    <t>运行时占用内存小</t>
+  </si>
+  <si>
+    <t>apk大小增加小</t>
+  </si>
+  <si>
     <t>IntDef/StringDef</t>
-  </si>
-  <si>
-    <t>可读性强</t>
-  </si>
-  <si>
-    <t>可读性弱</t>
-  </si>
-  <si>
-    <t>类型安全</t>
-  </si>
-  <si>
-    <t>运行时占用内存大</t>
-  </si>
-  <si>
-    <t>运行时占用内存小</t>
-  </si>
-  <si>
-    <t>apk大小增加多</t>
-  </si>
-  <si>
-    <t>apk大小增加小</t>
-  </si>
-  <si>
-    <t>类型不安全</t>
-  </si>
-  <si>
-    <t>立刻</t>
-  </si>
-  <si>
-    <t>非立刻</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,20 +181,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="36"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,22 +189,172 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -246,18 +370,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -267,50 +583,96 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -318,19 +680,8 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -338,20 +689,59 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
-      <right/>
-      <top/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -360,31 +750,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -392,36 +758,166 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -429,152 +925,392 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="48" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="48" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF00FA00"/>
+      <color rgb="0000FA00"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -588,21 +1324,15 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1355DB8D-71A0-5D4A-ABFF-121876737240}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4051300" y="22326600"/>
-          <a:ext cx="5956300" cy="12700"/>
+          <a:off x="2789555" y="3149600"/>
+          <a:ext cx="6103620" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -642,20 +1372,14 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E24EF449-C734-6E4C-8875-0763356AE8C8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6858000" y="19837400"/>
+          <a:off x="5845175" y="660400"/>
           <a:ext cx="38100" cy="3848100"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -687,7 +1411,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -701,21 +1425,15 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Oval 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B3C986F-CD4C-2742-85B3-A4B6789A98F9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Oval 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10071100" y="2044700"/>
-          <a:ext cx="1511300" cy="1320800"/>
+          <a:off x="10447020" y="2181225"/>
+          <a:ext cx="1460500" cy="1330325"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -749,6 +1467,7 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>0x0021455</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -767,21 +1486,15 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC1B275-7848-804C-BEBF-42AF53118606}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3378200" y="2806700"/>
-          <a:ext cx="6413500" cy="711200"/>
+          <a:off x="3957320" y="2927350"/>
+          <a:ext cx="6235700" cy="711200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -820,21 +1533,15 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69CFAFE4-CA86-AD42-A517-4FC22638EEB3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3441700" y="2971800"/>
-          <a:ext cx="6502400" cy="1409700"/>
+          <a:off x="4020820" y="3079750"/>
+          <a:ext cx="6299200" cy="1409700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -873,21 +1580,15 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Connector 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C66D019-66A8-3147-B8A6-DE772D6064EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5905500" y="2844800"/>
-          <a:ext cx="723900" cy="711200"/>
+          <a:off x="6408420" y="2965450"/>
+          <a:ext cx="698500" cy="711200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -918,7 +1619,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
+      <xdr:colOff>800100</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
@@ -928,21 +1629,15 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Connector 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79941564-E690-8442-8470-A880395FF1B2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="Straight Connector 14"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5765800" y="2959100"/>
-          <a:ext cx="901700" cy="520700"/>
+          <a:off x="6281420" y="3067050"/>
+          <a:ext cx="863600" cy="520700"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -983,21 +1678,15 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Sun 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B398575-DC0B-5940-B90B-4C703878D38E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="23" name="Sun 22"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10083800" y="5410200"/>
-          <a:ext cx="1968500" cy="1663700"/>
+          <a:off x="10180320" y="5403850"/>
+          <a:ext cx="1892300" cy="1660525"/>
         </a:xfrm>
         <a:prstGeom prst="sun">
           <a:avLst/>
@@ -1042,6 +1731,7 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>GC</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1060,21 +1750,15 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Up Arrow 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{689C8A05-9683-D449-99BF-E44CF5BD6689}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="24" name="Up Arrow 23"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10896600" y="4127500"/>
-          <a:ext cx="342900" cy="914400"/>
+          <a:off x="10967720" y="4121150"/>
+          <a:ext cx="317500" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
           <a:avLst/>
@@ -1120,21 +1804,15 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Freeform 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77882B4F-CB10-154A-99FB-F3ADBDE50CCC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="Freeform 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9207500" y="1422400"/>
-          <a:ext cx="3378200" cy="2438400"/>
+          <a:off x="9608820" y="1546225"/>
+          <a:ext cx="3276600" cy="2435225"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2039,7 +2717,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2072,26 +2750,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2124,23 +2785,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2282,1199 +2926,1212 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386DCE92-BB8F-3F41-8AAA-6E3D5A917A2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1642857142857" customWidth="1"/>
+    <col min="2" max="2" width="12.3285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="43" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="41"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="41"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="41"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="41"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="41"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="41"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="41"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="41"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="41"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
+    <row r="1" ht="44" spans="1:1">
+      <c r="A1" s="86" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="87" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="87" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="'C2_绘制优化_Overdraw_CustomView'!A1" display="C2_绘制优化_Overdraw_CustomView" xr:uid="{26FDCCC0-609A-274A-BDF8-887B6B40506C}"/>
-    <hyperlink ref="A3" location="'C3_内存优化_3.4 避免内存泄漏'!A1" display="内存泄漏" xr:uid="{7C5738E9-7631-164B-BA4B-ABA3F7B332A6}"/>
+    <hyperlink ref="A2" location="'C2_绘制优化_Overdraw_CustomView'!A1" display="C2_绘制优化_Overdraw_CustomView"/>
+    <hyperlink ref="A3" location="'C3_内存优化_3.4 避免内存泄漏'!A1" display="内存泄漏"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B499A7D-0AE7-A144-98A7-2F251D360DFC}">
-  <dimension ref="A1:T34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4" style="2" customWidth="1"/>
-    <col min="3" max="7" width="10.83203125" style="2"/>
-    <col min="8" max="9" width="5.83203125" style="2" customWidth="1"/>
-    <col min="10" max="12" width="10.83203125" style="2"/>
-    <col min="13" max="13" width="3.83203125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="6.57142857142857" style="28" customWidth="1"/>
+    <col min="2" max="2" width="4" style="28" customWidth="1"/>
+    <col min="3" max="7" width="10.8285714285714" style="28"/>
+    <col min="8" max="9" width="5.82857142857143" style="28" customWidth="1"/>
+    <col min="10" max="10" width="10.8285714285714" style="28"/>
+    <col min="11" max="11" width="3.82857142857143" style="28" customWidth="1"/>
+    <col min="12" max="17" width="10.8285714285714" style="28"/>
+    <col min="18" max="18" width="5.85714285714286" style="28" customWidth="1"/>
+    <col min="19" max="16383" width="10.8285714285714" style="28"/>
+    <col min="16384" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="D3" s="2" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="D4" s="2" t="s">
+    <row r="2" spans="4:4">
+      <c r="D2" s="28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+    <row r="3" spans="4:4">
+      <c r="D3" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" s="28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" ht="16.75" spans="2:11">
+      <c r="B6" s="28">
         <v>40</v>
       </c>
-      <c r="M6" s="2">
+      <c r="K6" s="28">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" ht="16.75" spans="1:18">
+      <c r="A7" s="28">
         <v>40</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-      <c r="L7" s="2">
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="40"/>
+      <c r="J7" s="28">
         <v>40</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="5"/>
-    </row>
-    <row r="8" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
+      <c r="K7" s="50"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="80"/>
+    </row>
+    <row r="8" ht="16.75" spans="2:18">
+      <c r="B8" s="32">
         <v>40</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="33">
         <v>40</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9">
+      <c r="D8" s="34"/>
+      <c r="E8" s="34">
         <v>760</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="26">
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="41"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="53">
         <v>40</v>
       </c>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27">
+      <c r="M8" s="61"/>
+      <c r="N8" s="62">
         <v>760</v>
       </c>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-    </row>
-    <row r="9" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="20">
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="37"/>
+    </row>
+    <row r="9" ht="16.75" spans="2:18">
+      <c r="B9" s="32"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35">
         <v>280</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10">
+      <c r="E9" s="36"/>
+      <c r="F9" s="36">
         <v>1000</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="32">
+      <c r="G9" s="37"/>
+      <c r="H9" s="41"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="63">
         <v>280</v>
       </c>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33">
+      <c r="N9" s="64"/>
+      <c r="O9" s="64">
         <v>1000</v>
       </c>
-      <c r="R9" s="4"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-    </row>
-    <row r="10" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="21">
+      <c r="P9" s="37"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="37"/>
+    </row>
+    <row r="10" ht="16.75" spans="2:18">
+      <c r="B10" s="32"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="42">
         <v>520</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11">
+      <c r="F10" s="43"/>
+      <c r="G10" s="43">
         <v>1240</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="34">
+      <c r="H10" s="41"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="66">
         <v>520</v>
       </c>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35">
+      <c r="O10" s="67"/>
+      <c r="P10" s="67">
         <v>1240</v>
       </c>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-    </row>
-    <row r="11" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="22">
+      <c r="Q10" s="81"/>
+      <c r="R10" s="37"/>
+    </row>
+    <row r="11" ht="16.75" spans="2:18">
+      <c r="B11" s="32"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44">
         <v>760</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24">
+      <c r="G11" s="45"/>
+      <c r="H11" s="46">
         <v>1440</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="46">
         <v>1480</v>
       </c>
-      <c r="M11" s="25"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="36">
+      <c r="K11" s="54"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="69">
         <v>760</v>
       </c>
-      <c r="R11" s="23"/>
-      <c r="S11" s="24">
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70">
         <v>1440</v>
       </c>
-      <c r="T11" s="24">
+      <c r="R11" s="47">
         <v>1480</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="6"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="17"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="17"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="6"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="17"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="17"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="6"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="17"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="17"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="6"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="17"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="17"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="6"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="17"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="17"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="6"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="17"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="17"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="6"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="17"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="17"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="6"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="17"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="17"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="6"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="17"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="17"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="6"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="17"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="17"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="6"/>
-      <c r="C22" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="17"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O22" s="10"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="17"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="17"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="17"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="17"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="17"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="17"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="17"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="17"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="17"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="8"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="8"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="8"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="8"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="8"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="8"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="8"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="8"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="8"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="8"/>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="8"/>
-    </row>
-    <row r="34" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="16"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="16"/>
+    <row r="12" spans="2:18">
+      <c r="B12" s="32"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="56"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="82"/>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="32"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="56"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="82"/>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="32"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="56"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="82"/>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="32"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="56"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="82"/>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="32"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="56"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="82"/>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" s="32"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="56"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="82"/>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" s="32"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="56"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="82"/>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" s="32"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="56"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="82"/>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" s="32"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="56"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="82"/>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21" s="32"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="56"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="82"/>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="B22" s="32"/>
+      <c r="C22" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="56"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" s="73"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="82"/>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="B23" s="32"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="56"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="82"/>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="B24" s="32"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="56"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="82"/>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="B25" s="32"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="56"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="76"/>
+      <c r="P25" s="77"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="82"/>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="B26" s="32"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="56"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="82"/>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="B27" s="32"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="41"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="81"/>
+      <c r="R27" s="83"/>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="B28" s="32"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="41"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="83"/>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="B29" s="32"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="41"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="81"/>
+      <c r="R29" s="83"/>
+    </row>
+    <row r="30" spans="2:18">
+      <c r="B30" s="32"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="41"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="81"/>
+      <c r="R30" s="83"/>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="B31" s="32"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="41"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="81"/>
+      <c r="R31" s="83"/>
+    </row>
+    <row r="32" spans="2:18">
+      <c r="B32" s="32"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="41"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="81"/>
+      <c r="R32" s="83"/>
+    </row>
+    <row r="33" spans="2:18">
+      <c r="B33" s="32"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="41"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="81"/>
+      <c r="R33" s="83"/>
+    </row>
+    <row r="34" ht="16.75" spans="2:18">
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="49"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="84"/>
+      <c r="R34" s="85"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Homepage!A1" display="Home" xr:uid="{340AD60D-C662-0F48-9E44-47A5382C2C10}"/>
+    <hyperlink ref="A1" location="Homepage!A1" display="Home"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3A0C53-CAB3-1A4B-BE5E-936350B50014}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="5.16428571428571" customWidth="1"/>
+    <col min="3" max="3" width="10.8285714285714" style="24"/>
+    <col min="5" max="5" width="10.8285714285714" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="6:6">
+      <c r="F3" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="8:9">
+      <c r="H8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9" spans="8:9">
+      <c r="H9" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="27"/>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="8:8">
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="J16" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8">
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9">
+      <c r="E19"/>
+      <c r="H19" s="27" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F3" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H8" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="39"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H9" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="39"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="40"/>
-      <c r="J16" s="40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="H17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E19"/>
-      <c r="H19" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="39"/>
-    </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="H20" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="39"/>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="H21" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="39"/>
-    </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="F24" s="1" t="s">
-        <v>45</v>
+      <c r="I19" s="27"/>
+    </row>
+    <row r="20" spans="8:9">
+      <c r="H20" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="27"/>
+    </row>
+    <row r="21" spans="8:9">
+      <c r="H21" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="27"/>
+    </row>
+    <row r="24" spans="6:6">
+      <c r="F24" s="24" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Homepage!A1" display="Home" xr:uid="{8D62D0CF-496C-0141-A766-470EC81F83DF}"/>
+    <hyperlink ref="A1" location="Homepage!A1" display="Home"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1D8796-072E-E642-9082-9ABAEA2F8EF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="45"/>
+    <col min="2" max="2" width="14.8285714285714" customWidth="1"/>
+    <col min="4" max="4" width="10.8285714285714" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="53" t="s">
+    <row r="1" ht="26.75" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="10:18">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="10:18">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="10:18">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="10:18">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="4:18">
+      <c r="D8"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="4:18">
+      <c r="D9"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="4:18">
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="4:18">
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="8:18">
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" ht="16.75" spans="10:18">
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="4:18">
+      <c r="D14" s="5"/>
+      <c r="E14" s="11"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="4:18">
+      <c r="D15" s="6"/>
+      <c r="E15" s="12"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="4:18">
+      <c r="D16" s="6"/>
+      <c r="E16" s="12"/>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="4:18">
+      <c r="D17" s="6"/>
+      <c r="E17" s="12"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="4:18">
+      <c r="D18" s="6"/>
+      <c r="E18" s="12"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="4:18">
+      <c r="D19" s="6"/>
+      <c r="E19" s="12"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="4:18">
+      <c r="D20" s="6"/>
+      <c r="E20" s="12"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="4:18">
+      <c r="D21" s="6"/>
+      <c r="E21" s="12"/>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="4:18">
+      <c r="D22" s="6"/>
+      <c r="E22" s="12"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="4:18">
+      <c r="D23" s="6"/>
+      <c r="E23" s="12"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="4:18">
+      <c r="D24" s="6"/>
+      <c r="E24" s="12"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="4:18">
+      <c r="D25" s="6"/>
+      <c r="E25" s="12"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="4:18">
+      <c r="D26" s="6"/>
+      <c r="E26" s="12"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" ht="16.75" spans="4:18">
+      <c r="D27" s="7"/>
+      <c r="E27" s="13"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+    </row>
+    <row r="28" spans="10:18">
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+    </row>
+    <row r="29" spans="10:18">
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="11:11">
+      <c r="K46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="13:14">
+      <c r="M49" s="22"/>
+      <c r="N49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" ht="26" spans="2:14">
+      <c r="B50" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M50" s="23"/>
+      <c r="N50" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D8"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D9"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-    </row>
-    <row r="13" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-      <c r="G16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-    </row>
-    <row r="17" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-    </row>
-    <row r="18" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-    </row>
-    <row r="19" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-    </row>
-    <row r="20" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-    </row>
-    <row r="21" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="G21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-    </row>
-    <row r="22" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-    </row>
-    <row r="23" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-    </row>
-    <row r="24" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-    </row>
-    <row r="25" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-    </row>
-    <row r="26" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D26" s="48"/>
-      <c r="E26" s="49"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-    </row>
-    <row r="27" spans="4:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="50"/>
-      <c r="E27" s="51"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-    </row>
-    <row r="28" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-    </row>
-    <row r="29" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-    </row>
-    <row r="30" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="E30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K46" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="M49" s="65"/>
-      <c r="N49" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" ht="26" x14ac:dyDescent="0.3">
-      <c r="B50" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="M50" s="57"/>
-      <c r="N50" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D51" s="62"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="63"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="63"/>
-      <c r="J51" s="64"/>
+    <row r="51" spans="4:14">
+      <c r="D51" s="9"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="19"/>
       <c r="K51">
         <v>70</v>
       </c>
-      <c r="M51" s="56"/>
+      <c r="M51" s="21"/>
       <c r="N51" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D53" s="54"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="60"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8">
+      <c r="D53" s="10"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="18"/>
+    </row>
+    <row r="54" spans="6:8">
       <c r="F54">
         <v>30</v>
       </c>
@@ -3482,17 +4139,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D56" s="54"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="58"/>
-      <c r="J56" s="61"/>
-      <c r="K56" s="56"/>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:11">
+      <c r="D56" s="10"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="21"/>
+    </row>
+    <row r="57" spans="9:11">
       <c r="I57">
         <v>60</v>
       </c>
@@ -3502,80 +4159,83 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Homepage!A1" display="Home" xr:uid="{C8781281-9D86-0740-8F78-3476A134CE9C}"/>
+    <hyperlink ref="A1" location="Homepage!A1" display="Home"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B97D24A-53FB-4346-BA6A-F01B6371D589}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6642857142857" customWidth="1"/>
+    <col min="5" max="5" width="17.3285714285714" customWidth="1"/>
+    <col min="6" max="6" width="14.1642857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="41" t="s">
+    <row r="2" spans="2:6">
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="41" t="s">
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="41" t="s">
+      <c r="E3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="41" t="s">
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>42</v>
+      <c r="F4" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>